--- a/results/20250608_153520/benchmark_moves(R).xlsx
+++ b/results/20250608_153520/benchmark_moves(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:FE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,6 +894,346 @@
           <t>Epoch 91</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 92</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 93</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 94</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 95</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 96</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 97</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 98</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 99</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 100</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 101</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 102</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 103</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 104</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 105</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 106</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 107</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 108</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 109</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 110</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 111</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 112</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 113</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 114</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 115</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 116</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 117</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 118</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 119</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 120</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 121</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 122</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 123</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 124</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 125</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 126</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 127</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 128</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 129</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 130</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 131</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 132</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 133</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 134</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 135</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 136</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 137</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 138</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 139</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 140</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 141</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 142</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 143</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 144</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 145</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 146</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 147</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 148</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 149</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 150</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 151</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 152</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 153</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 154</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 155</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 156</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 157</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 158</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 159</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1177,6 +1517,210 @@
       <c r="CO2" t="n">
         <v>112.6</v>
       </c>
+      <c r="CP2" t="n">
+        <v>113</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>112</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>112</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>112</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>113</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>112</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>113</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>112</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>112</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1460,6 +2004,210 @@
       <c r="CO3" t="n">
         <v>226.6</v>
       </c>
+      <c r="CP3" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>228</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>226</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>225</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>225</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>226.6</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>225</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>224</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>224</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>224</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>225</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>223</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>222</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>223.8</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>225</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>224.8</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>226.8</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>225.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1743,6 +2491,210 @@
       <c r="CO4" t="n">
         <v>454.8</v>
       </c>
+      <c r="CP4" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>458</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>456.6</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>462</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>455</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>455.8</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>454.4</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>455.8</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>452.4</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>454.4</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>453</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>457</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>453.8</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>454.4</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>457</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>459.8</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>456</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>457.6</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>453.8</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>453.2</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>456</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>464.2</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>457</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>457.2</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>452</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>455</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>452.4</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>459</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>450.8</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>454</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>457</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>460</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>455</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>453.6</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>455</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>454.8</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>454.6</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>452.4</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>458.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2026,6 +2978,210 @@
       <c r="CO5" t="n">
         <v>705.8</v>
       </c>
+      <c r="CP5" t="n">
+        <v>703.4000000000001</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>708.2</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>716.4000000000001</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>711</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>705.4000000000001</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>705.4000000000001</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>702</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>708.6</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>702.4000000000001</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>708</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>705.8</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>706</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>701.8</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>699.4000000000001</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>704.6</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>705</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>707.2</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>701.2</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>705</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>707.6</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>705.2</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>705.4000000000001</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>697.8</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>703.6</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>704</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>704.8</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>731.8</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>700.6</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>706.4000000000001</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>704.8</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>703</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>698.4000000000001</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>705.2</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>724</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>707</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>709.2</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>702.2</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>703</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>703.6</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>699</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>701.4000000000001</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>705.4000000000001</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>695.8</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>710.2</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>699.2</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>701.4000000000001</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>703</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>708.6</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>714.6</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>708.4000000000001</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>701.4000000000001</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>707.2</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>710.6</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>707.6</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>710</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>703.2</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>703.6</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>707.8</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>693</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2309,6 +3465,210 @@
       <c r="CO6" t="n">
         <v>935.2</v>
       </c>
+      <c r="CP6" t="n">
+        <v>931</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>943.6</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>943.4000000000001</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>961.8</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>946.2</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>930.2</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>929.2</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>931.4000000000001</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>942.4000000000001</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>934.4000000000001</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>941.2</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>938.4000000000001</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>930</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>934.6</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>930</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>938</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>932</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>938.4000000000001</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>951.4000000000001</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>937</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>933.6</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>933.8</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>934</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>935.6</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>935.4000000000001</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>928.8</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>936.4000000000001</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>994</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>934.4000000000001</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>941</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>939</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>931</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>929.4000000000001</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>936.8</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>967.2</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>938.8</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>943.6</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>933.2</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>933</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>940.6</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>930.6</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>930.6</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>938.2</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>922</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>948</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>930.4000000000001</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>931.2</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>941</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>952.6</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>936.2</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>926.8</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>946.2</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>957.8</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>940.6</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>949.2</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>934.2</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>941.2</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>921.2</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>940.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2592,6 +3952,210 @@
       <c r="CO7" t="n">
         <v>1162.2</v>
       </c>
+      <c r="CP7" t="n">
+        <v>1161.4</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1172.6</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1167</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1188.8</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1180.6</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1160</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1160.6</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>1158.4</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1166.4</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>1161.6</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1174.2</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>1162.4</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1172.6</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>1164</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>1159.8</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1157.4</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1158.6</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>1170.8</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1160.4</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>1161.4</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1178.4</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>1163.6</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1156.4</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>1164.6</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1166.8</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>1163</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1163.6</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>1164.6</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>1151.8</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>1161.6</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>1154.8</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>1176.6</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>1274.2</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>1157.2</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>1168</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>1166</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>1157.6</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>1154.8</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>1165.8</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>1219.2</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>1164.2</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>1172</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>1159.2</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>1161</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>1164.8</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>1157.6</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>1150.4</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>1153.6</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>1168.2</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>1145.4</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>1173.8</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>1151.8</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>1158.2</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>1158.6</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>1158.4</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>1171.4</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>1182.6</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>1164.8</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>1149.8</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>1186.4</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>1206.8</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>1166.2</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>1194.8</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>1165.4</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>1161</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>1170.2</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>1145.4</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>1170.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2875,6 +4439,210 @@
       <c r="CO8" t="n">
         <v>157</v>
       </c>
+      <c r="CP8" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>157</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>156</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>156</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>156</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>156</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>156</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>156</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>154</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>155</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>156</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>157</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>154</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>155</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>156</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>156</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>155</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3158,6 +4926,210 @@
       <c r="CO9" t="n">
         <v>340.6</v>
       </c>
+      <c r="CP9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>342</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>345.2</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>343.4</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>343</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>340</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>340</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>343</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>338</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>339.8</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>336</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>337.4</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>340.4</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>348.6</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>339.2</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>340.2</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>336</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>339</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>335</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>339</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>336</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>336</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>340</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>341.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3441,6 +5413,210 @@
       <c r="CO10" t="n">
         <v>678.2</v>
       </c>
+      <c r="CP10" t="n">
+        <v>679.4000000000001</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>685.4000000000001</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>680.4000000000001</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>711.2</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>687.2</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>677.8</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>677.2</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>676.4000000000001</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>681.8</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>683.8</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>687.6</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>678.8</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>688.2</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>683.8</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>675.2</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>673.2</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>671.4000000000001</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>679.8</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>677.8</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>680.2</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>684.8</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>680.2</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>671.8</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>676.8</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>682.4000000000001</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>677.4000000000001</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>677.6</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>678.8</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>673</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>678.8</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>674.2</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>680.2</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>684.4000000000001</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>674</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>679.8</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>680.6</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>679.8</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>673.4000000000001</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>681.6</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>694.4000000000001</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>674.2</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>682.6</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>680</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>682.2</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>681</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>673.8</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>671.8</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>675.6</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>678.2</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>671.6</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>678.2</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>674</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>680.4000000000001</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>677</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>676.4000000000001</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>680.6</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>683.6</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>679.6</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>671.8</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>674.2</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>681</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>677.6</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>680</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>678.8</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>682.2</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>670</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>688.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3723,6 +5899,210 @@
       </c>
       <c r="CO11" t="n">
         <v>1020.2</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>1019.2</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1029.4</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1074</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>1031.6</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>1026.8</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>1021</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>1022.6</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1039.2</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>1018.4</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>1010.8</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>1026.4</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>1026</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>1032.8</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>1014</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>1023.4</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>1023</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>1056.6</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>1010.4</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>1021</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>1015.2</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>1012</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>1022</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>1041.6</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>1027.6</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>1018</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>1024</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>1011</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>1003.6</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>1008</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>1007.2</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>1026.4</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>1010</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>1012.4</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>1026.6</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>1035.8</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>1020.2</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>1003.4</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>1021.8</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>1033</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>1027.8</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>1017.8</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>1023.6</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>1002.2</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
